--- a/pesantren/dokumen-tahfidz/buku musyrif/isi.xlsx
+++ b/pesantren/dokumen-tahfidz/buku musyrif/isi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pesantren\dokumen-tahfidz\buku musyrif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\pesantren\dokumen-tahfidz\buku musyrif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D4F370-E03C-41F2-948F-F37F7C2B2E8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FF28F5-44AF-4CA5-9991-CA796E2B9495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="8265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kehadiran musyrif" sheetId="11" r:id="rId1"/>
@@ -20,14 +20,18 @@
     <sheet name="syahadah" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">juziyyah!$A$1:$M$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'kehadiran musyrif'!$A$1:$AF$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'kehadiran santri 2'!$A$1:$AG$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'kehadiran santri 3'!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">syahadah!$A$1:$L$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
   <si>
     <t>No.</t>
   </si>
@@ -169,6 +173,15 @@
   <si>
     <t xml:space="preserve">Samarinda, ......................... </t>
   </si>
+  <si>
+    <t>Sudah diprint</t>
+  </si>
+  <si>
+    <t>Semua</t>
+  </si>
+  <si>
+    <t>Sisa</t>
+  </si>
 </sst>
 </file>
 
@@ -842,14 +855,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,6 +902,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,12 +916,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,18 +1238,20 @@
   </sheetPr>
   <dimension ref="A1:XFC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="31" width="4.28515625" style="29" customWidth="1"/>
     <col min="32" max="32" width="6" style="29" customWidth="1"/>
-    <col min="33" max="16383" width="9" style="29"/>
+    <col min="33" max="36" width="9" style="29"/>
+    <col min="37" max="37" width="12.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="38" max="16383" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="26.25">
+    <row r="1" spans="1:38" ht="26.25">
       <c r="A1" s="88" t="s">
         <v>33</v>
       </c>
@@ -1272,20 +1287,20 @@
       <c r="AE1" s="88"/>
       <c r="AF1" s="88"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:38">
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:38">
       <c r="A3" s="72" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:38">
       <c r="A4" s="72"/>
       <c r="H4" s="52"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:38">
       <c r="A5" s="59" t="s">
         <v>21</v>
       </c>
@@ -1335,7 +1350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:38">
       <c r="A6" s="82">
         <v>1</v>
       </c>
@@ -1430,8 +1445,14 @@
         <v>5</v>
       </c>
       <c r="AF6" s="74"/>
-    </row>
-    <row r="7" spans="1:32" ht="18.95" customHeight="1">
+      <c r="AK6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="18.95" customHeight="1">
       <c r="A7" s="82"/>
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
@@ -1464,8 +1485,14 @@
       <c r="AD7" s="34"/>
       <c r="AE7" s="35"/>
       <c r="AF7" s="54"/>
-    </row>
-    <row r="8" spans="1:32" ht="18.95" customHeight="1">
+      <c r="AK7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL7" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="18.95" customHeight="1">
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
@@ -1497,8 +1524,15 @@
       <c r="AD8" s="41"/>
       <c r="AE8" s="41"/>
       <c r="AF8" s="55"/>
-    </row>
-    <row r="9" spans="1:32" ht="18.95" customHeight="1">
+      <c r="AK8" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL8" s="29">
+        <f>AL6-AL7</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="18.95" customHeight="1">
       <c r="A9" s="59" t="s">
         <v>21</v>
       </c>
@@ -1548,7 +1582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.95" customHeight="1">
+    <row r="10" spans="1:38" ht="18.95" customHeight="1">
       <c r="A10" s="82">
         <v>2</v>
       </c>
@@ -1644,7 +1678,7 @@
       </c>
       <c r="AF10" s="74"/>
     </row>
-    <row r="11" spans="1:32" ht="18.95" customHeight="1">
+    <row r="11" spans="1:38" ht="18.95" customHeight="1">
       <c r="A11" s="82"/>
       <c r="B11" s="61"/>
       <c r="C11" s="34"/>
@@ -1678,7 +1712,7 @@
       <c r="AE11" s="35"/>
       <c r="AF11" s="54"/>
     </row>
-    <row r="12" spans="1:32" ht="18.95" customHeight="1">
+    <row r="12" spans="1:38" ht="18.95" customHeight="1">
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
@@ -1711,7 +1745,7 @@
       <c r="AE12" s="41"/>
       <c r="AF12" s="55"/>
     </row>
-    <row r="13" spans="1:32" ht="18.95" customHeight="1">
+    <row r="13" spans="1:38" ht="18.95" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.95" customHeight="1">
+    <row r="14" spans="1:38" ht="18.95" customHeight="1">
       <c r="A14" s="82">
         <v>3</v>
       </c>
@@ -1857,7 +1891,7 @@
       </c>
       <c r="AF14" s="74"/>
     </row>
-    <row r="15" spans="1:32" ht="18.95" customHeight="1">
+    <row r="15" spans="1:38" ht="18.95" customHeight="1">
       <c r="A15" s="82"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
@@ -1891,7 +1925,7 @@
       <c r="AE15" s="35"/>
       <c r="AF15" s="54"/>
     </row>
-    <row r="16" spans="1:32" ht="18.95" customHeight="1">
+    <row r="16" spans="1:38" ht="18.95" customHeight="1">
       <c r="B16" s="62"/>
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
@@ -2573,8 +2607,8 @@
     <mergeCell ref="B17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1.18055555555556" right="0.25138888888888899" top="0.25138888888888899" bottom="0.25138888888888899" header="0" footer="0"/>
-  <pageSetup paperSize="10000" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2583,10 +2617,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AK42"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2595,10 +2629,12 @@
     <col min="2" max="2" width="25.28515625" style="29" customWidth="1"/>
     <col min="3" max="32" width="4.28515625" style="29" customWidth="1"/>
     <col min="33" max="33" width="6" style="29" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="29"/>
+    <col min="34" max="35" width="9" style="29"/>
+    <col min="36" max="36" width="12.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.25">
+    <row r="1" spans="1:37" ht="26.25">
       <c r="A1" s="88" t="s">
         <v>34</v>
       </c>
@@ -2635,19 +2671,19 @@
       <c r="AF1" s="88"/>
       <c r="AG1" s="88"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:37">
       <c r="I2" s="52"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:37">
       <c r="A3" s="73" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="52"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:37">
       <c r="I4" s="52"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:37">
       <c r="A5" s="82" t="s">
         <v>0</v>
       </c>
@@ -2700,7 +2736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:37">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="30">
@@ -2794,8 +2830,15 @@
         <v>5</v>
       </c>
       <c r="AG6" s="74"/>
-    </row>
-    <row r="7" spans="1:33" ht="18.95" customHeight="1">
+      <c r="AJ6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK6" s="29">
+        <f>12*6</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="18.95" customHeight="1">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -2831,8 +2874,14 @@
       <c r="AE7" s="34"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="54"/>
-    </row>
-    <row r="8" spans="1:33" ht="18.95" customHeight="1">
+      <c r="AJ7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK7" s="29">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="18.95" customHeight="1">
       <c r="A8" s="31">
         <f t="shared" ref="A8:A16" si="0">A7+1</f>
         <v>2</v>
@@ -2869,8 +2918,15 @@
       <c r="AE8" s="31"/>
       <c r="AF8" s="37"/>
       <c r="AG8" s="54"/>
-    </row>
-    <row r="9" spans="1:33" ht="18.95" customHeight="1">
+      <c r="AJ8" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK8" s="29">
+        <f>AK6-AK7</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="18.95" customHeight="1">
       <c r="A9" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2908,7 +2964,7 @@
       <c r="AF9" s="37"/>
       <c r="AG9" s="54"/>
     </row>
-    <row r="10" spans="1:33" ht="18.95" customHeight="1">
+    <row r="10" spans="1:37" ht="18.95" customHeight="1">
       <c r="A10" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2946,7 +3002,7 @@
       <c r="AF10" s="37"/>
       <c r="AG10" s="54"/>
     </row>
-    <row r="11" spans="1:33" ht="18.95" customHeight="1">
+    <row r="11" spans="1:37" ht="18.95" customHeight="1">
       <c r="A11" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2984,7 +3040,7 @@
       <c r="AF11" s="37"/>
       <c r="AG11" s="54"/>
     </row>
-    <row r="12" spans="1:33" ht="18.95" customHeight="1">
+    <row r="12" spans="1:37" ht="18.95" customHeight="1">
       <c r="A12" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3022,7 +3078,7 @@
       <c r="AF12" s="37"/>
       <c r="AG12" s="54"/>
     </row>
-    <row r="13" spans="1:33" ht="18.95" customHeight="1">
+    <row r="13" spans="1:37" ht="18.95" customHeight="1">
       <c r="A13" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3060,7 +3116,7 @@
       <c r="AF13" s="37"/>
       <c r="AG13" s="54"/>
     </row>
-    <row r="14" spans="1:33" ht="18.95" customHeight="1">
+    <row r="14" spans="1:37" ht="18.95" customHeight="1">
       <c r="A14" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3098,7 +3154,7 @@
       <c r="AF14" s="37"/>
       <c r="AG14" s="54"/>
     </row>
-    <row r="15" spans="1:33" ht="18.95" customHeight="1">
+    <row r="15" spans="1:37" ht="18.95" customHeight="1">
       <c r="A15" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3136,7 +3192,7 @@
       <c r="AF15" s="37"/>
       <c r="AG15" s="54"/>
     </row>
-    <row r="16" spans="1:33" ht="18.95" customHeight="1">
+    <row r="16" spans="1:37" ht="18.95" customHeight="1">
       <c r="A16" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4330,8 +4386,8 @@
     <mergeCell ref="M18:Q18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1.18055555555556" right="0.25138888888888899" top="0.25138888888888899" bottom="0.25138888888888899" header="0" footer="0"/>
-  <pageSetup paperSize="10000" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4340,10 +4396,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4355,7 +4411,7 @@
     <col min="34" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.25" customHeight="1">
+    <row r="1" spans="1:35" ht="26.25" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>34</v>
       </c>
@@ -4392,19 +4448,22 @@
       <c r="AF1" s="88"/>
       <c r="AG1" s="88"/>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1">
+    <row r="2" spans="1:35" ht="15" customHeight="1">
       <c r="I2" s="52"/>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1">
+    <row r="3" spans="1:35" ht="15" customHeight="1">
       <c r="A3" s="73" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1">
+      <c r="AI3" s="29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="15" customHeight="1">
       <c r="I4" s="52"/>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1">
+    <row r="5" spans="1:35" ht="15" customHeight="1">
       <c r="A5" s="82" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:35">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="30">
@@ -4552,7 +4611,7 @@
       </c>
       <c r="AG6" s="74"/>
     </row>
-    <row r="7" spans="1:33" ht="18.95" customHeight="1">
+    <row r="7" spans="1:35" ht="18.95" customHeight="1">
       <c r="A7" s="45">
         <v>1</v>
       </c>
@@ -4589,7 +4648,7 @@
       <c r="AF7" s="35"/>
       <c r="AG7" s="54"/>
     </row>
-    <row r="8" spans="1:33" ht="18.95" customHeight="1">
+    <row r="8" spans="1:35" ht="18.95" customHeight="1">
       <c r="A8" s="45">
         <f t="shared" ref="A8:A16" si="0">A7+1</f>
         <v>2</v>
@@ -4627,7 +4686,7 @@
       <c r="AF8" s="37"/>
       <c r="AG8" s="54"/>
     </row>
-    <row r="9" spans="1:33" ht="18.95" customHeight="1">
+    <row r="9" spans="1:35" ht="18.95" customHeight="1">
       <c r="A9" s="45">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4665,7 +4724,7 @@
       <c r="AF9" s="37"/>
       <c r="AG9" s="54"/>
     </row>
-    <row r="10" spans="1:33" ht="18.95" customHeight="1">
+    <row r="10" spans="1:35" ht="18.95" customHeight="1">
       <c r="A10" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4703,7 +4762,7 @@
       <c r="AF10" s="37"/>
       <c r="AG10" s="54"/>
     </row>
-    <row r="11" spans="1:33" ht="18.95" customHeight="1">
+    <row r="11" spans="1:35" ht="18.95" customHeight="1">
       <c r="A11" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4741,7 +4800,7 @@
       <c r="AF11" s="37"/>
       <c r="AG11" s="54"/>
     </row>
-    <row r="12" spans="1:33" ht="18.95" customHeight="1">
+    <row r="12" spans="1:35" ht="18.95" customHeight="1">
       <c r="A12" s="45">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4779,7 +4838,7 @@
       <c r="AF12" s="37"/>
       <c r="AG12" s="54"/>
     </row>
-    <row r="13" spans="1:33" ht="18.95" customHeight="1">
+    <row r="13" spans="1:35" ht="18.95" customHeight="1">
       <c r="A13" s="45">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4817,7 +4876,7 @@
       <c r="AF13" s="37"/>
       <c r="AG13" s="54"/>
     </row>
-    <row r="14" spans="1:33" ht="18.95" customHeight="1">
+    <row r="14" spans="1:35" ht="18.95" customHeight="1">
       <c r="A14" s="45">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4855,7 +4914,7 @@
       <c r="AF14" s="37"/>
       <c r="AG14" s="54"/>
     </row>
-    <row r="15" spans="1:33" ht="18.95" customHeight="1">
+    <row r="15" spans="1:35" ht="18.95" customHeight="1">
       <c r="A15" s="45">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4893,7 +4952,7 @@
       <c r="AF15" s="37"/>
       <c r="AG15" s="54"/>
     </row>
-    <row r="16" spans="1:33" ht="18.95" customHeight="1">
+    <row r="16" spans="1:35" ht="18.95" customHeight="1">
       <c r="A16" s="45">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5535,14 +5594,14 @@
       <c r="B31" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="91" t="s">
+      <c r="D31" s="90"/>
+      <c r="E31" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="92"/>
+      <c r="F31" s="90"/>
       <c r="H31" s="44" t="s">
         <v>29</v>
       </c>
@@ -5682,17 +5741,17 @@
       <c r="AG41" s="57"/>
     </row>
     <row r="42" spans="1:33">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="H42" s="46"/>
       <c r="AG42" s="57"/>
     </row>
     <row r="43" spans="1:33">
-      <c r="A43" s="90"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
       <c r="F43" s="50"/>
       <c r="H43" s="51"/>
       <c r="I43" s="50"/>
@@ -5733,22 +5792,22 @@
     <mergeCell ref="W5:AA5"/>
     <mergeCell ref="AB5:AF5"/>
     <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="AB18:AF18"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="AG18:AG19"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A37:F37"/>
-    <mergeCell ref="AB18:AF18"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="C18:G18"/>
@@ -5756,8 +5815,8 @@
     <mergeCell ref="M18:Q18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1.18055555555556" right="0.25138888888888899" top="0.25138888888888899" bottom="0.25138888888888899" header="0" footer="0"/>
-  <pageSetup paperSize="10000" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5766,10 +5825,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30:M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5777,10 +5836,11 @@
     <col min="13" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25">
-      <c r="B1" s="88" t="s">
+    <row r="1" spans="1:16" ht="26.25">
+      <c r="A1" s="88" t="s">
         <v>36</v>
       </c>
+      <c r="B1" s="88"/>
       <c r="C1" s="88"/>
       <c r="D1" s="88"/>
       <c r="E1" s="88"/>
@@ -5793,7 +5853,7 @@
       <c r="L1" s="88"/>
       <c r="M1" s="88"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -5806,8 +5866,12 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75">
+      <c r="P2">
+        <f>6*6</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="70" t="s">
         <v>37</v>
       </c>
@@ -5819,16 +5883,14 @@
         <v>38</v>
       </c>
       <c r="G3" s="16"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-    </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+    </row>
+    <row r="4" spans="1:16" ht="12" customHeight="1">
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -5842,30 +5904,30 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="97" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
       <c r="M5" s="100" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="97"/>
       <c r="B6" s="99"/>
       <c r="C6" s="17">
@@ -5900,7 +5962,7 @@
       </c>
       <c r="M6" s="100"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7" s="94"/>
       <c r="B7" s="94"/>
       <c r="C7" s="18"/>
@@ -5915,7 +5977,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="101"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8" s="95"/>
       <c r="B8" s="95"/>
       <c r="C8" s="20"/>
@@ -5930,7 +5992,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="102"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9" s="94"/>
       <c r="B9" s="94"/>
       <c r="C9" s="22"/>
@@ -5945,7 +6007,7 @@
       <c r="L9" s="28"/>
       <c r="M9" s="101"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10" s="95"/>
       <c r="B10" s="95"/>
       <c r="C10" s="20"/>
@@ -5962,7 +6024,7 @@
       <c r="L10" s="27"/>
       <c r="M10" s="102"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="A11" s="94"/>
       <c r="B11" s="94"/>
       <c r="C11" s="22"/>
@@ -5977,7 +6039,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="101"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12" s="95"/>
       <c r="B12" s="95"/>
       <c r="C12" s="20"/>
@@ -5992,7 +6054,7 @@
       <c r="L12" s="27"/>
       <c r="M12" s="102"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" s="94"/>
       <c r="B13" s="94"/>
       <c r="C13" s="22"/>
@@ -6007,7 +6069,7 @@
       <c r="L13" s="28"/>
       <c r="M13" s="101"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:16">
       <c r="A14" s="95"/>
       <c r="B14" s="95"/>
       <c r="C14" s="20"/>
@@ -6022,7 +6084,7 @@
       <c r="L14" s="27"/>
       <c r="M14" s="102"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="A15" s="94"/>
       <c r="B15" s="94"/>
       <c r="C15" s="22"/>
@@ -6037,7 +6099,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="101"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16" s="95"/>
       <c r="B16" s="95"/>
       <c r="C16" s="20"/>
@@ -6057,19 +6119,19 @@
         <v>11</v>
       </c>
       <c r="B18" s="96"/>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="110"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="96"/>
@@ -6208,11 +6270,11 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B1:M1"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="C5:L5"/>
     <mergeCell ref="C18:M18"/>
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="K19:M19"/>
@@ -6260,8 +6322,8 @@
     <mergeCell ref="A21:B21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1.18055555555556" right="0.25138888888888899" top="0.25138888888888899" bottom="0.25138888888888899" header="0" footer="0"/>
-  <pageSetup paperSize="10000" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6270,10 +6332,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6283,7 +6345,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25">
+    <row r="1" spans="1:14" ht="26.25">
       <c r="A1" s="121" t="s">
         <v>43</v>
       </c>
@@ -6299,7 +6361,7 @@
       <c r="K1" s="121"/>
       <c r="L1" s="121"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -6313,27 +6375,30 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" s="109" t="s">
+    <row r="3" spans="1:14" ht="15.75">
+      <c r="A3" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="15"/>
       <c r="E3" s="70" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-    </row>
-    <row r="4" spans="1:12" ht="12" customHeight="1">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="N3" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -6347,7 +6412,7 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="97" t="s">
         <v>9</v>
       </c>
@@ -6367,7 +6432,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="97"/>
       <c r="B6" s="71">
         <v>1</v>
@@ -6401,7 +6466,7 @@
       </c>
       <c r="L6" s="115"/>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="111"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -6415,7 +6480,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="116"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="112"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -6429,7 +6494,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="117"/>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="111"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -6443,7 +6508,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="116"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="112"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -6459,7 +6524,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="117"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="111"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -6473,7 +6538,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="116"/>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="112"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -6487,7 +6552,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="117"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="111"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -6501,7 +6566,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="116"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="112"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -6515,7 +6580,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="117"/>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="111"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -6529,7 +6594,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="116"/>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="112"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -6795,7 +6860,7 @@
     <mergeCell ref="L15:L16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1.18055555555556" right="0.25138888888888899" top="0.25138888888888899" bottom="0.25138888888888899" header="0" footer="0"/>
-  <pageSetup paperSize="10000" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>